--- a/christensen-hamilton/Working documents/Variable Matrix.xlsx
+++ b/christensen-hamilton/Working documents/Variable Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jham9\OneDrive\Documents\GitHub\distributive_politics\christensen-hamilton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jham9\OneDrive\Documents\GitHub\distributive_politics\christensen-hamilton\Working documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{976761D5-FD22-45A2-B409-EF44B8E292D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{63802A80-265C-46D3-B51A-E110A05FB785}"/>
@@ -657,9 +657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F283D3-A37A-4C1A-9460-4507DA996268}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
